--- a/data/coin-market-cap.xlsx
+++ b/data/coin-market-cap.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="13275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="coin-market-cap" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="2010">
   <si>
     <t>price_btc</t>
   </si>
@@ -6046,6 +6047,9 @@
   </si>
   <si>
     <t>warrant</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -6578,7 +6582,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6589,6 +6600,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L100" totalsRowShown="0">
+  <autoFilter ref="A1:L100">
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="greaterThan" val="0.01"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:L100">
+    <sortCondition ref="I1:I100"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" name="price_btc"/>
+    <tableColumn id="2" name="price_usd"/>
+    <tableColumn id="3" name="total_supply"/>
+    <tableColumn id="4" name="available_supply"/>
+    <tableColumn id="5" name="symbol"/>
+    <tableColumn id="6" name="24h_volume_usd"/>
+    <tableColumn id="7" name="rank"/>
+    <tableColumn id="8" name="id"/>
+    <tableColumn id="9" name="market_cap_usd"/>
+    <tableColumn id="10" name="supply_released"/>
+    <tableColumn id="11" name="traded vol of mcap" dataDxfId="1">
+      <calculatedColumnFormula>F2/I2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6890,8 +6935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection sqref="A1:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41421,4 +41466,4034 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.0314000000000001E-4</v>
+      </c>
+      <c r="B2">
+        <v>0.26727499999999998</v>
+      </c>
+      <c r="C2">
+        <v>100000000</v>
+      </c>
+      <c r="D2">
+        <v>76001556</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2">
+        <v>32906.400000000001</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2">
+        <v>20313316</v>
+      </c>
+      <c r="J2">
+        <v>0.76001556000000003</v>
+      </c>
+      <c r="K2" s="2">
+        <f>F2/I2</f>
+        <v>1.6199423077945521E-3</v>
+      </c>
+      <c r="L2">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>32906.400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.4771999999999998E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.90109499999999998</v>
+      </c>
+      <c r="C3">
+        <v>22767631</v>
+      </c>
+      <c r="D3">
+        <v>22767631</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3">
+        <v>347202</v>
+      </c>
+      <c r="G3">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3">
+        <v>20515798</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <f>F3/I3</f>
+        <v>1.6923640991201024E-2</v>
+      </c>
+      <c r="L3">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>347202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9.6910000000000006E-5</v>
+      </c>
+      <c r="B4">
+        <v>0.25112499999999999</v>
+      </c>
+      <c r="C4">
+        <v>100000000</v>
+      </c>
+      <c r="D4">
+        <v>82864312</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4">
+        <v>272656</v>
+      </c>
+      <c r="G4">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4">
+        <v>20809300</v>
+      </c>
+      <c r="J4">
+        <v>0.82864311999999996</v>
+      </c>
+      <c r="K4" s="2">
+        <f>F4/I4</f>
+        <v>1.3102603163008847E-2</v>
+      </c>
+      <c r="L4">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>272656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.4489800000000001E-2</v>
+      </c>
+      <c r="B5">
+        <v>37.548999999999999</v>
+      </c>
+      <c r="C5">
+        <v>615713</v>
+      </c>
+      <c r="D5">
+        <v>559397</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5">
+        <v>88807.9</v>
+      </c>
+      <c r="G5">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5">
+        <v>21004806</v>
+      </c>
+      <c r="J5">
+        <v>0.90853530800000004</v>
+      </c>
+      <c r="K5" s="2">
+        <f>F5/I5</f>
+        <v>4.2279800156211867E-3</v>
+      </c>
+      <c r="L5">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>88807.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.4114100000000001E-3</v>
+      </c>
+      <c r="B6">
+        <v>3.65754</v>
+      </c>
+      <c r="C6">
+        <v>100000000</v>
+      </c>
+      <c r="D6">
+        <v>5818526</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6">
+        <v>48988.800000000003</v>
+      </c>
+      <c r="G6">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>21281492</v>
+      </c>
+      <c r="J6">
+        <v>5.8185260000000003E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <f>F6/I6</f>
+        <v>2.3019438674694425E-3</v>
+      </c>
+      <c r="L6">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>48988.800000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.4639000000000001E-4</v>
+      </c>
+      <c r="B7">
+        <v>1.4158999999999999</v>
+      </c>
+      <c r="C7">
+        <v>15093948</v>
+      </c>
+      <c r="D7">
+        <v>15093948</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7">
+        <v>67675.8</v>
+      </c>
+      <c r="G7">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7">
+        <v>21371522</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <f>F7/I7</f>
+        <v>3.1666345522794307E-3</v>
+      </c>
+      <c r="L7">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>67675.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.49E-6</v>
+      </c>
+      <c r="B8">
+        <v>2.2001E-2</v>
+      </c>
+      <c r="C8">
+        <v>1007629474</v>
+      </c>
+      <c r="D8">
+        <v>1007629474</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8">
+        <v>74944</v>
+      </c>
+      <c r="G8">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8">
+        <v>22168856</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <f>F8/I8</f>
+        <v>3.3805984395405878E-3</v>
+      </c>
+      <c r="L8">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>74944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9.7699999999999996E-6</v>
+      </c>
+      <c r="B9">
+        <v>2.53262E-2</v>
+      </c>
+      <c r="C9">
+        <v>1011211988</v>
+      </c>
+      <c r="D9">
+        <v>886211988</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9">
+        <v>353283</v>
+      </c>
+      <c r="G9">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9">
+        <v>22444382</v>
+      </c>
+      <c r="J9">
+        <v>0.87638595900000005</v>
+      </c>
+      <c r="K9" s="2">
+        <f>F9/I9</f>
+        <v>1.5740375475698107E-2</v>
+      </c>
+      <c r="L9">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>353283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.0120000000000002E-5</v>
+      </c>
+      <c r="B10">
+        <v>0.10396900000000001</v>
+      </c>
+      <c r="C10">
+        <v>217412301</v>
+      </c>
+      <c r="D10">
+        <v>217412301</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10">
+        <v>693384</v>
+      </c>
+      <c r="G10">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10">
+        <v>22604140</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <f>F10/I10</f>
+        <v>3.0675088722685314E-2</v>
+      </c>
+      <c r="L10">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>693384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.74668E-3</v>
+      </c>
+      <c r="B11">
+        <v>4.5263499999999999</v>
+      </c>
+      <c r="C11">
+        <v>5068656</v>
+      </c>
+      <c r="D11">
+        <v>5068656</v>
+      </c>
+      <c r="E11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11">
+        <v>234769</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11">
+        <v>22942511</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <f>F11/I11</f>
+        <v>1.0232925245192211E-2</v>
+      </c>
+      <c r="L11">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>234769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.4177299999999999E-3</v>
+      </c>
+      <c r="B12">
+        <v>6.2653100000000004</v>
+      </c>
+      <c r="C12">
+        <v>5469073</v>
+      </c>
+      <c r="D12">
+        <v>3690337</v>
+      </c>
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12">
+        <v>13284.3</v>
+      </c>
+      <c r="G12">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12">
+        <v>23121108</v>
+      </c>
+      <c r="J12">
+        <v>0.67476462599999998</v>
+      </c>
+      <c r="K12" s="2">
+        <f>F12/I12</f>
+        <v>5.7455291502466052E-4</v>
+      </c>
+      <c r="L12">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>13284.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.5158799999999999E-3</v>
+      </c>
+      <c r="B13">
+        <v>9.1110699999999998</v>
+      </c>
+      <c r="C13">
+        <v>2618253</v>
+      </c>
+      <c r="D13">
+        <v>2618253</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13">
+        <v>181329</v>
+      </c>
+      <c r="G13">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13">
+        <v>23855084</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <f>F13/I13</f>
+        <v>7.6012727517538823E-3</v>
+      </c>
+      <c r="L13">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>181329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.8446000000000001E-4</v>
+      </c>
+      <c r="B14">
+        <v>0.47800599999999999</v>
+      </c>
+      <c r="C14">
+        <v>65000000</v>
+      </c>
+      <c r="D14">
+        <v>52000000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14">
+        <v>159054</v>
+      </c>
+      <c r="G14">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14">
+        <v>24856312</v>
+      </c>
+      <c r="J14">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="2">
+        <f>F14/I14</f>
+        <v>6.3989380242732707E-3</v>
+      </c>
+      <c r="L14">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>159054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.8833000000000001E-4</v>
+      </c>
+      <c r="B15">
+        <v>0.48803099999999999</v>
+      </c>
+      <c r="C15">
+        <v>52807275</v>
+      </c>
+      <c r="D15">
+        <v>52807275</v>
+      </c>
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15">
+        <v>57807.1</v>
+      </c>
+      <c r="G15">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15">
+        <v>25771587</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <f>F15/I15</f>
+        <v>2.2430555013938413E-3</v>
+      </c>
+      <c r="L15">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>57807.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.9079999999999999E-5</v>
+      </c>
+      <c r="B16">
+        <v>7.5350500000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>451787700</v>
+      </c>
+      <c r="D16">
+        <v>349767545</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16">
+        <v>109123</v>
+      </c>
+      <c r="G16">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16">
+        <v>26355159</v>
+      </c>
+      <c r="J16">
+        <v>0.77418562999999996</v>
+      </c>
+      <c r="K16" s="2">
+        <f>F16/I16</f>
+        <v>4.1404796685157548E-3</v>
+      </c>
+      <c r="L16">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>109123.00000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.9959999999999998E-4</v>
+      </c>
+      <c r="B17">
+        <v>1.8129599999999999</v>
+      </c>
+      <c r="C17">
+        <v>14736400</v>
+      </c>
+      <c r="D17">
+        <v>14736400</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17">
+        <v>97487.1</v>
+      </c>
+      <c r="G17">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17">
+        <v>26716504</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <f>F17/I17</f>
+        <v>3.6489467334498557E-3</v>
+      </c>
+      <c r="L17">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>97487.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.4729999999999999E-5</v>
+      </c>
+      <c r="B18">
+        <v>0.16774500000000001</v>
+      </c>
+      <c r="C18">
+        <v>184190414</v>
+      </c>
+      <c r="D18">
+        <v>162858414</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18">
+        <v>345048</v>
+      </c>
+      <c r="G18">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18">
+        <v>27318685</v>
+      </c>
+      <c r="J18">
+        <v>0.88418506900000005</v>
+      </c>
+      <c r="K18" s="2">
+        <f>F18/I18</f>
+        <v>1.2630476174091103E-2</v>
+      </c>
+      <c r="L18">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>345048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.5599E-4</v>
+      </c>
+      <c r="B19">
+        <v>0.40423100000000001</v>
+      </c>
+      <c r="C19">
+        <v>466424524</v>
+      </c>
+      <c r="D19">
+        <v>68524524</v>
+      </c>
+      <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19">
+        <v>1991360</v>
+      </c>
+      <c r="G19">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19">
+        <v>27699737</v>
+      </c>
+      <c r="J19">
+        <v>0.14691449600000001</v>
+      </c>
+      <c r="K19" s="2">
+        <f>F19/I19</f>
+        <v>7.1890935282165308E-2</v>
+      </c>
+      <c r="L19">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1991359.9999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.5781000000000001E-4</v>
+      </c>
+      <c r="B20">
+        <v>0.408941</v>
+      </c>
+      <c r="C20">
+        <v>424999998</v>
+      </c>
+      <c r="D20">
+        <v>68476994</v>
+      </c>
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20">
+        <v>194563</v>
+      </c>
+      <c r="G20">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20">
+        <v>28003050</v>
+      </c>
+      <c r="J20">
+        <v>0.16112234</v>
+      </c>
+      <c r="K20" s="2">
+        <f>F20/I20</f>
+        <v>6.9479217442385737E-3</v>
+      </c>
+      <c r="L20">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>194563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.8219200000000001E-2</v>
+      </c>
+      <c r="B21">
+        <v>47.213299999999997</v>
+      </c>
+      <c r="C21">
+        <v>749400</v>
+      </c>
+      <c r="D21">
+        <v>599400</v>
+      </c>
+      <c r="E21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21">
+        <v>192283</v>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21">
+        <v>28299652</v>
+      </c>
+      <c r="J21">
+        <v>0.79983987199999995</v>
+      </c>
+      <c r="K21" s="2">
+        <f>F21/I21</f>
+        <v>6.7945358480026542E-3</v>
+      </c>
+      <c r="L21">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>192283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8.5959999999999997E-5</v>
+      </c>
+      <c r="B22">
+        <v>0.22277</v>
+      </c>
+      <c r="C22">
+        <v>127110892</v>
+      </c>
+      <c r="D22">
+        <v>127110892</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22">
+        <v>131246</v>
+      </c>
+      <c r="G22">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22">
+        <v>28316494</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <f>F22/I22</f>
+        <v>4.6349664615965526E-3</v>
+      </c>
+      <c r="L22">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>131246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.3238E-4</v>
+      </c>
+      <c r="B23">
+        <v>0.34304400000000002</v>
+      </c>
+      <c r="C23">
+        <v>100000000</v>
+      </c>
+      <c r="D23">
+        <v>89708333</v>
+      </c>
+      <c r="E23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23">
+        <v>177505</v>
+      </c>
+      <c r="G23">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23">
+        <v>30773905</v>
+      </c>
+      <c r="J23">
+        <v>0.89708332999999996</v>
+      </c>
+      <c r="K23" s="2">
+        <f>F23/I23</f>
+        <v>5.7680362631911683E-3</v>
+      </c>
+      <c r="L23">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>177505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.5731999999999999E-4</v>
+      </c>
+      <c r="B24">
+        <v>0.40768300000000002</v>
+      </c>
+      <c r="C24">
+        <v>86999785</v>
+      </c>
+      <c r="D24">
+        <v>79070793</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24">
+        <v>192890</v>
+      </c>
+      <c r="G24">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24">
+        <v>32235818</v>
+      </c>
+      <c r="J24">
+        <v>0.90886193599999998</v>
+      </c>
+      <c r="K24" s="2">
+        <f>F24/I24</f>
+        <v>5.9837166222988358E-3</v>
+      </c>
+      <c r="L24">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>192890</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.0514300000000001E-2</v>
+      </c>
+      <c r="B25">
+        <v>27.2468</v>
+      </c>
+      <c r="C25">
+        <v>2222991</v>
+      </c>
+      <c r="D25">
+        <v>1222991</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25">
+        <v>195402</v>
+      </c>
+      <c r="G25">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25">
+        <v>33322597</v>
+      </c>
+      <c r="J25">
+        <v>0.55015562399999995</v>
+      </c>
+      <c r="K25" s="2">
+        <f>F25/I25</f>
+        <v>5.863948719242981E-3</v>
+      </c>
+      <c r="L25">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>195402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="B26">
+        <v>1.16704E-3</v>
+      </c>
+      <c r="C26">
+        <v>28573097096</v>
+      </c>
+      <c r="D26">
+        <v>28573097096</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26">
+        <v>165648</v>
+      </c>
+      <c r="G26">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26">
+        <v>33345947</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <f>F26/I26</f>
+        <v>4.9675602255350552E-3</v>
+      </c>
+      <c r="L26">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>165648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.8798000000000001E-4</v>
+      </c>
+      <c r="B27">
+        <v>1.00543</v>
+      </c>
+      <c r="C27">
+        <v>33390496</v>
+      </c>
+      <c r="D27">
+        <v>33390496</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27">
+        <v>266610</v>
+      </c>
+      <c r="G27">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27">
+        <v>33571806</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <f>F27/I27</f>
+        <v>7.9414851855154883E-3</v>
+      </c>
+      <c r="L27">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>266610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.385E-5</v>
+      </c>
+      <c r="B28">
+        <v>6.17966E-2</v>
+      </c>
+      <c r="C28">
+        <v>800000000</v>
+      </c>
+      <c r="D28">
+        <v>560000000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28">
+        <v>71873.100000000006</v>
+      </c>
+      <c r="G28">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28">
+        <v>34606096</v>
+      </c>
+      <c r="J28">
+        <v>0.7</v>
+      </c>
+      <c r="K28" s="2">
+        <f>F28/I28</f>
+        <v>2.0768913083983819E-3</v>
+      </c>
+      <c r="L28">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>71873.100000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.9993300000000001E-3</v>
+      </c>
+      <c r="B29">
+        <v>5.1810900000000002</v>
+      </c>
+      <c r="C29">
+        <v>7001623</v>
+      </c>
+      <c r="D29">
+        <v>7001623</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29">
+        <v>777405</v>
+      </c>
+      <c r="G29">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29">
+        <v>36276037</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <f>F29/I29</f>
+        <v>2.143026262764039E-2</v>
+      </c>
+      <c r="L29">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>777405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.6719999999999999E-5</v>
+      </c>
+      <c r="B30">
+        <v>4.3338700000000001E-2</v>
+      </c>
+      <c r="C30">
+        <v>1000000000</v>
+      </c>
+      <c r="D30">
+        <v>850000000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30">
+        <v>229698</v>
+      </c>
+      <c r="G30">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30">
+        <v>36837895</v>
+      </c>
+      <c r="J30">
+        <v>0.85</v>
+      </c>
+      <c r="K30" s="2">
+        <f>F30/I30</f>
+        <v>6.2353725694695638E-3</v>
+      </c>
+      <c r="L30">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>229698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.7834E-4</v>
+      </c>
+      <c r="B31">
+        <v>0.46214</v>
+      </c>
+      <c r="C31">
+        <v>132046997</v>
+      </c>
+      <c r="D31">
+        <v>82046288</v>
+      </c>
+      <c r="E31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31">
+        <v>309767</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31">
+        <v>37916872</v>
+      </c>
+      <c r="J31">
+        <v>0.62134156699999998</v>
+      </c>
+      <c r="K31" s="2">
+        <f>F31/I31</f>
+        <v>8.1696348791640821E-3</v>
+      </c>
+      <c r="L31">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>309766.99999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.0002999999999999E-4</v>
+      </c>
+      <c r="B32">
+        <v>0.51837299999999997</v>
+      </c>
+      <c r="C32">
+        <v>100000000</v>
+      </c>
+      <c r="D32">
+        <v>75000000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32">
+        <v>2998350</v>
+      </c>
+      <c r="G32">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32">
+        <v>38877975</v>
+      </c>
+      <c r="J32">
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="2">
+        <f>F32/I32</f>
+        <v>7.7122072330156083E-2</v>
+      </c>
+      <c r="L32">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>2998350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.13E-6</v>
+      </c>
+      <c r="B33">
+        <v>2.9295499999999999E-3</v>
+      </c>
+      <c r="C33">
+        <v>13409472280</v>
+      </c>
+      <c r="D33">
+        <v>13409472280</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33">
+        <v>436819</v>
+      </c>
+      <c r="G33">
+        <v>68</v>
+      </c>
+      <c r="H33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33">
+        <v>39283720</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <f>F33/I33</f>
+        <v>1.111959356191318E-2</v>
+      </c>
+      <c r="L33">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>436819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3.8384999999999998E-4</v>
+      </c>
+      <c r="B34">
+        <v>0.99471100000000001</v>
+      </c>
+      <c r="C34">
+        <v>40445725</v>
+      </c>
+      <c r="D34">
+        <v>40445725</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34">
+        <v>230167</v>
+      </c>
+      <c r="G34">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34">
+        <v>40231807</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <f>F34/I34</f>
+        <v>5.7210206839578446E-3</v>
+      </c>
+      <c r="L34">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>230167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6.6978000000000003E-4</v>
+      </c>
+      <c r="B35">
+        <v>1.7356799999999999</v>
+      </c>
+      <c r="C35">
+        <v>24232028</v>
+      </c>
+      <c r="D35">
+        <v>24232028</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35">
+        <v>258071</v>
+      </c>
+      <c r="G35">
+        <v>66</v>
+      </c>
+      <c r="H35" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35">
+        <v>42059046</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <f>F35/I35</f>
+        <v>6.1359213901332902E-3</v>
+      </c>
+      <c r="L35">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>258071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4.2799999999999997E-6</v>
+      </c>
+      <c r="B36">
+        <v>1.10849E-2</v>
+      </c>
+      <c r="C36">
+        <v>17173696076</v>
+      </c>
+      <c r="D36">
+        <v>3839463249</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36">
+        <v>440868</v>
+      </c>
+      <c r="G36">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36">
+        <v>42560066</v>
+      </c>
+      <c r="J36">
+        <v>0.223566507</v>
+      </c>
+      <c r="K36" s="2">
+        <f>F36/I36</f>
+        <v>1.0358724537692212E-2</v>
+      </c>
+      <c r="L36">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>440868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4.1516399999999998E-3</v>
+      </c>
+      <c r="B37">
+        <v>10.758599999999999</v>
+      </c>
+      <c r="C37">
+        <v>10083758</v>
+      </c>
+      <c r="D37">
+        <v>3960334</v>
+      </c>
+      <c r="E37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37">
+        <v>686975</v>
+      </c>
+      <c r="G37">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37">
+        <v>42607644</v>
+      </c>
+      <c r="J37">
+        <v>0.392743856</v>
+      </c>
+      <c r="K37" s="2">
+        <f>F37/I37</f>
+        <v>1.6123280601950205E-2</v>
+      </c>
+      <c r="L37">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>686975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2.2108499999999999E-3</v>
+      </c>
+      <c r="B38">
+        <v>5.7292100000000001</v>
+      </c>
+      <c r="C38">
+        <v>8644985</v>
+      </c>
+      <c r="D38">
+        <v>7648985</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38">
+        <v>92395.9</v>
+      </c>
+      <c r="G38">
+        <v>63</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38">
+        <v>43822641</v>
+      </c>
+      <c r="J38">
+        <v>0.88478869500000001</v>
+      </c>
+      <c r="K38" s="2">
+        <f>F38/I38</f>
+        <v>2.1084055614083138E-3</v>
+      </c>
+      <c r="L38">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>92395.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4.5984999999999998E-4</v>
+      </c>
+      <c r="B39">
+        <v>1.1916599999999999</v>
+      </c>
+      <c r="C39">
+        <v>37537269</v>
+      </c>
+      <c r="D39">
+        <v>37537269</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39">
+        <v>144487</v>
+      </c>
+      <c r="G39">
+        <v>62</v>
+      </c>
+      <c r="H39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39">
+        <v>44731662</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <f>F39/I39</f>
+        <v>3.2300834250245385E-3</v>
+      </c>
+      <c r="L39">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>144487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.9804999999999999E-4</v>
+      </c>
+      <c r="B40">
+        <v>0.51323300000000005</v>
+      </c>
+      <c r="C40">
+        <v>95747118</v>
+      </c>
+      <c r="D40">
+        <v>87389700</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40">
+        <v>238026</v>
+      </c>
+      <c r="G40">
+        <v>61</v>
+      </c>
+      <c r="H40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40">
+        <v>44851278</v>
+      </c>
+      <c r="J40">
+        <v>0.91271363400000005</v>
+      </c>
+      <c r="K40" s="2">
+        <f>F40/I40</f>
+        <v>5.3070059675891512E-3</v>
+      </c>
+      <c r="L40">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>238026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3.4496E-4</v>
+      </c>
+      <c r="B41">
+        <v>0.89394099999999999</v>
+      </c>
+      <c r="C41">
+        <v>51244728</v>
+      </c>
+      <c r="D41">
+        <v>51244728</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41">
+        <v>73650.600000000006</v>
+      </c>
+      <c r="G41">
+        <v>60</v>
+      </c>
+      <c r="H41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41">
+        <v>45809763</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <f>F41/I41</f>
+        <v>1.6077489857347659E-3</v>
+      </c>
+      <c r="L41">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>73650.600000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.8404000000000001E-4</v>
+      </c>
+      <c r="B42">
+        <v>0.47691899999999998</v>
+      </c>
+      <c r="C42">
+        <v>127745010</v>
+      </c>
+      <c r="D42">
+        <v>96495010</v>
+      </c>
+      <c r="E42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42">
+        <v>145388</v>
+      </c>
+      <c r="G42">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42">
+        <v>46020304</v>
+      </c>
+      <c r="J42">
+        <v>0.75537204899999999</v>
+      </c>
+      <c r="K42" s="2">
+        <f>F42/I42</f>
+        <v>3.1592142459554375E-3</v>
+      </c>
+      <c r="L42">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>145388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3.7704999999999998E-4</v>
+      </c>
+      <c r="B43">
+        <v>0.97709100000000004</v>
+      </c>
+      <c r="C43">
+        <v>73197775</v>
+      </c>
+      <c r="D43">
+        <v>51306089</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43">
+        <v>1923240</v>
+      </c>
+      <c r="G43">
+        <v>58</v>
+      </c>
+      <c r="H43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43">
+        <v>50130718</v>
+      </c>
+      <c r="J43">
+        <v>0.70092416099999999</v>
+      </c>
+      <c r="K43" s="2">
+        <f>F43/I43</f>
+        <v>3.8364501382166516E-2</v>
+      </c>
+      <c r="L43">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1923239.9999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.7147699999999998E-2</v>
+      </c>
+      <c r="B44">
+        <v>44.436599999999999</v>
+      </c>
+      <c r="C44">
+        <v>1288862</v>
+      </c>
+      <c r="D44">
+        <v>1288862</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44">
+        <v>50916.3</v>
+      </c>
+      <c r="G44">
+        <v>57</v>
+      </c>
+      <c r="H44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44">
+        <v>57272653</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <f>F44/I44</f>
+        <v>8.8901591480317847E-4</v>
+      </c>
+      <c r="L44">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>50916.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6.5359999999999998E-5</v>
+      </c>
+      <c r="B45">
+        <v>0.16938500000000001</v>
+      </c>
+      <c r="C45">
+        <v>1000000000</v>
+      </c>
+      <c r="D45">
+        <v>339351836</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45">
+        <v>1102590</v>
+      </c>
+      <c r="G45">
+        <v>56</v>
+      </c>
+      <c r="H45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45">
+        <v>57481111</v>
+      </c>
+      <c r="J45">
+        <v>0.33935183600000002</v>
+      </c>
+      <c r="K45" s="2">
+        <f>F45/I45</f>
+        <v>1.9181779558853689E-2</v>
+      </c>
+      <c r="L45">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1102590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4.2290000000000003E-5</v>
+      </c>
+      <c r="B46">
+        <v>0.109579</v>
+      </c>
+      <c r="C46">
+        <v>526404620</v>
+      </c>
+      <c r="D46">
+        <v>526404620</v>
+      </c>
+      <c r="E46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46">
+        <v>849535</v>
+      </c>
+      <c r="G46">
+        <v>55</v>
+      </c>
+      <c r="H46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46">
+        <v>57682892</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <f>F46/I46</f>
+        <v>1.4727676968762246E-2</v>
+      </c>
+      <c r="L46">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>849535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6.7955999999999995E-4</v>
+      </c>
+      <c r="B47">
+        <v>1.76102</v>
+      </c>
+      <c r="C47">
+        <v>39609523</v>
+      </c>
+      <c r="D47">
+        <v>33605167</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47">
+        <v>351248</v>
+      </c>
+      <c r="G47">
+        <v>54</v>
+      </c>
+      <c r="H47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47">
+        <v>59179371</v>
+      </c>
+      <c r="J47">
+        <v>0.84841130300000001</v>
+      </c>
+      <c r="K47" s="2">
+        <f>F47/I47</f>
+        <v>5.9353114787245708E-3</v>
+      </c>
+      <c r="L47">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>351248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9.3010000000000006E-5</v>
+      </c>
+      <c r="B48">
+        <v>0.24101500000000001</v>
+      </c>
+      <c r="C48">
+        <v>1285690000</v>
+      </c>
+      <c r="D48">
+        <v>250490536</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48">
+        <v>109475</v>
+      </c>
+      <c r="G48">
+        <v>53</v>
+      </c>
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48">
+        <v>60371977</v>
+      </c>
+      <c r="J48">
+        <v>0.19482965299999999</v>
+      </c>
+      <c r="K48" s="2">
+        <f>F48/I48</f>
+        <v>1.8133413123111739E-3</v>
+      </c>
+      <c r="L48">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>109475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2.9483999999999999E-4</v>
+      </c>
+      <c r="B49">
+        <v>0.76404099999999997</v>
+      </c>
+      <c r="C49">
+        <v>93468691</v>
+      </c>
+      <c r="D49">
+        <v>85558371</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49">
+        <v>3689860</v>
+      </c>
+      <c r="G49">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49">
+        <v>65370103</v>
+      </c>
+      <c r="J49">
+        <v>0.91536930800000005</v>
+      </c>
+      <c r="K49" s="2">
+        <f>F49/I49</f>
+        <v>5.6445681292562749E-2</v>
+      </c>
+      <c r="L49">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>3689860</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.2969999999999997E-5</v>
+      </c>
+      <c r="B50">
+        <v>0.111358</v>
+      </c>
+      <c r="C50">
+        <v>1000000000</v>
+      </c>
+      <c r="D50">
+        <v>600000000</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50">
+        <v>330764</v>
+      </c>
+      <c r="G50">
+        <v>51</v>
+      </c>
+      <c r="H50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50">
+        <v>66814800</v>
+      </c>
+      <c r="J50">
+        <v>0.6</v>
+      </c>
+      <c r="K50" s="2">
+        <f>F50/I50</f>
+        <v>4.9504600777073339E-3</v>
+      </c>
+      <c r="L50">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>330764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.0012E-4</v>
+      </c>
+      <c r="B51">
+        <v>0.25945200000000002</v>
+      </c>
+      <c r="C51">
+        <v>218405912</v>
+      </c>
+      <c r="D51">
+        <v>300000000</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51">
+        <v>21568.3</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51">
+        <v>77835600</v>
+      </c>
+      <c r="J51">
+        <v>1.373589191</v>
+      </c>
+      <c r="K51" s="2">
+        <f>F51/I51</f>
+        <v>2.7710070970095947E-4</v>
+      </c>
+      <c r="L51">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>21568.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7.5765000000000001E-4</v>
+      </c>
+      <c r="B52">
+        <v>1.9633799999999999</v>
+      </c>
+      <c r="C52">
+        <v>79384422</v>
+      </c>
+      <c r="D52">
+        <v>40772871</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52">
+        <v>1354730</v>
+      </c>
+      <c r="G52">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52">
+        <v>80052639</v>
+      </c>
+      <c r="J52">
+        <v>0.51361299800000004</v>
+      </c>
+      <c r="K52" s="2">
+        <f>F52/I52</f>
+        <v>1.6922989884193575E-2</v>
+      </c>
+      <c r="L52">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1354730</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3.3597999999999999E-4</v>
+      </c>
+      <c r="B53">
+        <v>0.87065400000000004</v>
+      </c>
+      <c r="C53">
+        <v>100000000</v>
+      </c>
+      <c r="D53">
+        <v>94869691</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53">
+        <v>227903</v>
+      </c>
+      <c r="G53">
+        <v>48</v>
+      </c>
+      <c r="H53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53">
+        <v>82598676</v>
+      </c>
+      <c r="J53">
+        <v>0.94869691</v>
+      </c>
+      <c r="K53" s="2">
+        <f>F53/I53</f>
+        <v>2.7591604494967932E-3</v>
+      </c>
+      <c r="L53">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>227902.99999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.6371000000000001E-3</v>
+      </c>
+      <c r="B54">
+        <v>4.2423900000000003</v>
+      </c>
+      <c r="C54">
+        <v>66588888</v>
+      </c>
+      <c r="D54">
+        <v>21088888</v>
+      </c>
+      <c r="E54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54">
+        <v>683813</v>
+      </c>
+      <c r="G54">
+        <v>47</v>
+      </c>
+      <c r="H54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54">
+        <v>89467288</v>
+      </c>
+      <c r="J54">
+        <v>0.31670281099999997</v>
+      </c>
+      <c r="K54" s="2">
+        <f>F54/I54</f>
+        <v>7.6431622695437018E-3</v>
+      </c>
+      <c r="L54">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>683813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3.5644000000000002E-4</v>
+      </c>
+      <c r="B55">
+        <v>0.92368099999999997</v>
+      </c>
+      <c r="C55">
+        <v>100945510</v>
+      </c>
+      <c r="D55">
+        <v>100945510</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55">
+        <v>240451</v>
+      </c>
+      <c r="G55">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55">
+        <v>93241450</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <f>F55/I55</f>
+        <v>2.5787994502444998E-3</v>
+      </c>
+      <c r="L55">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>240451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>9.9288999999999996E-4</v>
+      </c>
+      <c r="B56">
+        <v>2.5729899999999999</v>
+      </c>
+      <c r="C56">
+        <v>53252246</v>
+      </c>
+      <c r="D56">
+        <v>37004027</v>
+      </c>
+      <c r="E56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56">
+        <v>610040</v>
+      </c>
+      <c r="G56">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>95210991</v>
+      </c>
+      <c r="J56">
+        <v>0.694881996</v>
+      </c>
+      <c r="K56" s="2">
+        <f>F56/I56</f>
+        <v>6.4072434662506561E-3</v>
+      </c>
+      <c r="L56">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>610040</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8.1371999999999998E-4</v>
+      </c>
+      <c r="B57">
+        <v>2.1086800000000001</v>
+      </c>
+      <c r="C57">
+        <v>100000000</v>
+      </c>
+      <c r="D57">
+        <v>48235104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57">
+        <v>448206</v>
+      </c>
+      <c r="G57">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57">
+        <v>101712399</v>
+      </c>
+      <c r="J57">
+        <v>0.48235104000000001</v>
+      </c>
+      <c r="K57" s="2">
+        <f>F57/I57</f>
+        <v>4.4066014016639213E-3</v>
+      </c>
+      <c r="L57">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>448206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3.7742E-4</v>
+      </c>
+      <c r="B58">
+        <v>0.97805200000000003</v>
+      </c>
+      <c r="C58">
+        <v>205218256</v>
+      </c>
+      <c r="D58">
+        <v>104661310</v>
+      </c>
+      <c r="E58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58">
+        <v>1614200</v>
+      </c>
+      <c r="G58">
+        <v>43</v>
+      </c>
+      <c r="H58" t="s">
+        <v>96</v>
+      </c>
+      <c r="I58">
+        <v>102364204</v>
+      </c>
+      <c r="J58">
+        <v>0.50999999699999998</v>
+      </c>
+      <c r="K58" s="2">
+        <f>F58/I58</f>
+        <v>1.5769184313688407E-2</v>
+      </c>
+      <c r="L58">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1614200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4.2320000000000001E-5</v>
+      </c>
+      <c r="B59">
+        <v>0.109671</v>
+      </c>
+      <c r="C59">
+        <v>998999983</v>
+      </c>
+      <c r="D59">
+        <v>998999983</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59">
+        <v>6825210</v>
+      </c>
+      <c r="G59">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59">
+        <v>109561327</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <f>F59/I59</f>
+        <v>6.2295795303757139E-2</v>
+      </c>
+      <c r="L59">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>6825210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4.456E-5</v>
+      </c>
+      <c r="B60">
+        <v>0.115465</v>
+      </c>
+      <c r="C60">
+        <v>998999495</v>
+      </c>
+      <c r="D60">
+        <v>998999495</v>
+      </c>
+      <c r="E60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60">
+        <v>1430760</v>
+      </c>
+      <c r="G60">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60">
+        <v>115349477</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <f>F60/I60</f>
+        <v>1.2403697331024742E-2</v>
+      </c>
+      <c r="L60">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1430760</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8.2726000000000002E-4</v>
+      </c>
+      <c r="B61">
+        <v>2.14377</v>
+      </c>
+      <c r="C61">
+        <v>53932472</v>
+      </c>
+      <c r="D61">
+        <v>53932472</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61">
+        <v>537839</v>
+      </c>
+      <c r="G61">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61">
+        <v>115618815</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <f>F61/I61</f>
+        <v>4.6518293756946045E-3</v>
+      </c>
+      <c r="L61">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>537839</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4.6699999999999997E-5</v>
+      </c>
+      <c r="B62">
+        <v>0.12102599999999999</v>
+      </c>
+      <c r="C62">
+        <v>1500000000</v>
+      </c>
+      <c r="D62">
+        <v>1000000000</v>
+      </c>
+      <c r="E62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62">
+        <v>1304520</v>
+      </c>
+      <c r="G62">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62">
+        <v>121026000</v>
+      </c>
+      <c r="J62">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="K62" s="2">
+        <f>F62/I62</f>
+        <v>1.0778840910217639E-2</v>
+      </c>
+      <c r="L62">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1304520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2.4244999999999999E-2</v>
+      </c>
+      <c r="B63">
+        <v>62.828600000000002</v>
+      </c>
+      <c r="C63">
+        <v>2000000</v>
+      </c>
+      <c r="D63">
+        <v>2000000</v>
+      </c>
+      <c r="E63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63">
+        <v>729943</v>
+      </c>
+      <c r="G63">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63">
+        <v>125657200</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <f>F63/I63</f>
+        <v>5.8090025879933664E-3</v>
+      </c>
+      <c r="L63">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>729943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5.3405E-4</v>
+      </c>
+      <c r="B64">
+        <v>1.38395</v>
+      </c>
+      <c r="C64">
+        <v>140245398</v>
+      </c>
+      <c r="D64">
+        <v>98312024</v>
+      </c>
+      <c r="E64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64">
+        <v>4959120</v>
+      </c>
+      <c r="G64">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64">
+        <v>136058926</v>
+      </c>
+      <c r="J64">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="K64" s="2">
+        <f>F64/I64</f>
+        <v>3.6448325338096527E-2</v>
+      </c>
+      <c r="L64">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>4959120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8.2611999999999996E-4</v>
+      </c>
+      <c r="B65">
+        <v>2.1408100000000001</v>
+      </c>
+      <c r="C65">
+        <v>63626136</v>
+      </c>
+      <c r="D65">
+        <v>63626136</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65">
+        <v>665763</v>
+      </c>
+      <c r="G65">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65">
+        <v>136211468</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <f>F65/I65</f>
+        <v>4.8877162090346163E-3</v>
+      </c>
+      <c r="L65">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>665763</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9.7272499999999998E-3</v>
+      </c>
+      <c r="B66">
+        <v>25.2073</v>
+      </c>
+      <c r="C66">
+        <v>5830936</v>
+      </c>
+      <c r="D66">
+        <v>5410936</v>
+      </c>
+      <c r="E66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66">
+        <v>506444</v>
+      </c>
+      <c r="G66">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66">
+        <v>136395094</v>
+      </c>
+      <c r="J66">
+        <v>0.92797039800000003</v>
+      </c>
+      <c r="K66" s="2">
+        <f>F66/I66</f>
+        <v>3.7130661019229914E-3</v>
+      </c>
+      <c r="L66">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>506444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6.7299999999999999E-6</v>
+      </c>
+      <c r="B67">
+        <v>1.7440000000000001E-2</v>
+      </c>
+      <c r="C67">
+        <v>8742253657</v>
+      </c>
+      <c r="D67">
+        <v>8742253657</v>
+      </c>
+      <c r="E67" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67">
+        <v>9986100</v>
+      </c>
+      <c r="G67">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67">
+        <v>152464904</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <f>F67/I67</f>
+        <v>6.5497696440355871E-2</v>
+      </c>
+      <c r="L67">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>9986100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1.3192999999999999E-4</v>
+      </c>
+      <c r="B68">
+        <v>0.341895</v>
+      </c>
+      <c r="C68">
+        <v>452552412</v>
+      </c>
+      <c r="D68">
+        <v>452552412</v>
+      </c>
+      <c r="E68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68">
+        <v>1504470</v>
+      </c>
+      <c r="G68">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68">
+        <v>154725407</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <f>F68/I68</f>
+        <v>9.7234838748881114E-3</v>
+      </c>
+      <c r="L68">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1504470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>7.1830799999999997E-3</v>
+      </c>
+      <c r="B69">
+        <v>18.6143</v>
+      </c>
+      <c r="C69">
+        <v>8753219</v>
+      </c>
+      <c r="D69">
+        <v>8753219</v>
+      </c>
+      <c r="E69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69">
+        <v>1542990</v>
+      </c>
+      <c r="G69">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>162935044</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <f>F69/I69</f>
+        <v>9.4699701311646619E-3</v>
+      </c>
+      <c r="L69">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1542990</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.18601599999999999</v>
+      </c>
+      <c r="B70">
+        <v>482.04399999999998</v>
+      </c>
+      <c r="C70">
+        <v>1000000</v>
+      </c>
+      <c r="D70">
+        <v>365903</v>
+      </c>
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70">
+        <v>364543</v>
+      </c>
+      <c r="G70">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>176381350</v>
+      </c>
+      <c r="J70">
+        <v>0.36590299999999998</v>
+      </c>
+      <c r="K70" s="2">
+        <f>F70/I70</f>
+        <v>2.0667888073200484E-3</v>
+      </c>
+      <c r="L70">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>364543</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>7.0983699999999997E-3</v>
+      </c>
+      <c r="B71">
+        <v>18.3948</v>
+      </c>
+      <c r="C71">
+        <v>11000000</v>
+      </c>
+      <c r="D71">
+        <v>11000000</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71">
+        <v>1731010</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>202342800</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <f>F71/I71</f>
+        <v>8.5548386204006271E-3</v>
+      </c>
+      <c r="L71">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1731010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7.0999999999999998E-7</v>
+      </c>
+      <c r="B72">
+        <v>1.8334099999999999E-3</v>
+      </c>
+      <c r="C72">
+        <v>110395541698</v>
+      </c>
+      <c r="D72">
+        <v>110395541698</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72">
+        <v>3167600</v>
+      </c>
+      <c r="G72">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s">
+        <v>68</v>
+      </c>
+      <c r="I72">
+        <v>202400290</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <f>F72/I72</f>
+        <v>1.5650175204788491E-2</v>
+      </c>
+      <c r="L72">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>3167600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2.287E-5</v>
+      </c>
+      <c r="B73">
+        <v>5.9270900000000001E-2</v>
+      </c>
+      <c r="C73">
+        <v>6804870174</v>
+      </c>
+      <c r="D73">
+        <v>3470483788</v>
+      </c>
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73">
+        <v>39808500</v>
+      </c>
+      <c r="G73">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73">
+        <v>205698698</v>
+      </c>
+      <c r="J73">
+        <v>0.51</v>
+      </c>
+      <c r="K73" s="2">
+        <f>F73/I73</f>
+        <v>0.19352820599768697</v>
+      </c>
+      <c r="L73">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>39808500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7.4000000000000003E-6</v>
+      </c>
+      <c r="B74">
+        <v>1.9182000000000001E-2</v>
+      </c>
+      <c r="C74">
+        <v>103117266298</v>
+      </c>
+      <c r="D74">
+        <v>10773071844</v>
+      </c>
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74">
+        <v>5558330</v>
+      </c>
+      <c r="G74">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74">
+        <v>206649064</v>
+      </c>
+      <c r="J74">
+        <v>0.104473986</v>
+      </c>
+      <c r="K74" s="2">
+        <f>F74/I74</f>
+        <v>2.6897436128721107E-2</v>
+      </c>
+      <c r="L74">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>5558330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9.7730000000000001E-5</v>
+      </c>
+      <c r="B75">
+        <v>0.25326599999999999</v>
+      </c>
+      <c r="C75">
+        <v>1000000000</v>
+      </c>
+      <c r="D75">
+        <v>833032000</v>
+      </c>
+      <c r="E75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75">
+        <v>1642830</v>
+      </c>
+      <c r="G75">
+        <v>26</v>
+      </c>
+      <c r="H75" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75">
+        <v>210978683</v>
+      </c>
+      <c r="J75">
+        <v>0.83303199999999999</v>
+      </c>
+      <c r="K75" s="2">
+        <f>F75/I75</f>
+        <v>7.7867108498350041E-3</v>
+      </c>
+      <c r="L75">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1642830</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7.6236000000000001E-4</v>
+      </c>
+      <c r="B76">
+        <v>1.97557</v>
+      </c>
+      <c r="C76">
+        <v>110130295</v>
+      </c>
+      <c r="D76">
+        <v>110130295</v>
+      </c>
+      <c r="E76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76">
+        <v>2135460</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76">
+        <v>217570107</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2">
+        <f>F76/I76</f>
+        <v>9.8150432035224392E-3</v>
+      </c>
+      <c r="L76">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>2135460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7.7957799999999994E-2</v>
+      </c>
+      <c r="B77">
+        <v>202.02</v>
+      </c>
+      <c r="C77">
+        <v>10000000</v>
+      </c>
+      <c r="D77">
+        <v>1104590</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77">
+        <v>549668</v>
+      </c>
+      <c r="G77">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77">
+        <v>223149272</v>
+      </c>
+      <c r="J77">
+        <v>0.110459</v>
+      </c>
+      <c r="K77" s="2">
+        <f>F77/I77</f>
+        <v>2.4632300839412999E-3</v>
+      </c>
+      <c r="L77">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>549668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="B78">
+        <v>1.2798E-3</v>
+      </c>
+      <c r="C78">
+        <v>183176864839</v>
+      </c>
+      <c r="D78">
+        <v>183176864839</v>
+      </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78">
+        <v>703222</v>
+      </c>
+      <c r="G78">
+        <v>23</v>
+      </c>
+      <c r="H78" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78">
+        <v>234429752</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2">
+        <f>F78/I78</f>
+        <v>2.9997131080870655E-3</v>
+      </c>
+      <c r="L78">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>703222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3.3699999999999999E-6</v>
+      </c>
+      <c r="B79">
+        <v>8.7343400000000002E-3</v>
+      </c>
+      <c r="C79">
+        <v>28087694430</v>
+      </c>
+      <c r="D79">
+        <v>28087694430</v>
+      </c>
+      <c r="E79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79">
+        <v>5927230</v>
+      </c>
+      <c r="G79">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>54</v>
+      </c>
+      <c r="I79">
+        <v>245327473</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2">
+        <f>F79/I79</f>
+        <v>2.4160482018253212E-2</v>
+      </c>
+      <c r="L79">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>5927230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1.0943700000000001E-3</v>
+      </c>
+      <c r="B80">
+        <v>2.83596</v>
+      </c>
+      <c r="C80">
+        <v>100000000</v>
+      </c>
+      <c r="D80">
+        <v>100000000</v>
+      </c>
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80">
+        <v>2055240</v>
+      </c>
+      <c r="G80">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80">
+        <v>283596000</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <f>F80/I80</f>
+        <v>7.2470697753141793E-3</v>
+      </c>
+      <c r="L80">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>2055240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1.29345E-3</v>
+      </c>
+      <c r="B81">
+        <v>3.3518500000000002</v>
+      </c>
+      <c r="C81">
+        <v>100000000</v>
+      </c>
+      <c r="D81">
+        <v>87000000</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81">
+        <v>2263860</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81">
+        <v>291610950</v>
+      </c>
+      <c r="J81">
+        <v>0.87</v>
+      </c>
+      <c r="K81" s="2">
+        <f>F81/I81</f>
+        <v>7.7632887242402937E-3</v>
+      </c>
+      <c r="L81">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>2263860</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4.9456000000000001E-4</v>
+      </c>
+      <c r="B82">
+        <v>1.2816099999999999</v>
+      </c>
+      <c r="C82">
+        <v>254995301</v>
+      </c>
+      <c r="D82">
+        <v>238021207</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82">
+        <v>1371720</v>
+      </c>
+      <c r="G82">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82">
+        <v>305050359</v>
+      </c>
+      <c r="J82">
+        <v>0.93343369899999995</v>
+      </c>
+      <c r="K82" s="2">
+        <f>F82/I82</f>
+        <v>4.496700166151911E-3</v>
+      </c>
+      <c r="L82">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1371720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5.9319799999999999E-2</v>
+      </c>
+      <c r="B83">
+        <v>153.72200000000001</v>
+      </c>
+      <c r="C83">
+        <v>100000000</v>
+      </c>
+      <c r="D83">
+        <v>2006279</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83">
+        <v>1172830</v>
+      </c>
+      <c r="G83">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83">
+        <v>308409287</v>
+      </c>
+      <c r="J83">
+        <v>2.006279E-2</v>
+      </c>
+      <c r="K83" s="2">
+        <f>F83/I83</f>
+        <v>3.8028361966933894E-3</v>
+      </c>
+      <c r="L83">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>1172830</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3.8734000000000002E-4</v>
+      </c>
+      <c r="B84">
+        <v>1.0037499999999999</v>
+      </c>
+      <c r="C84">
+        <v>324951410</v>
+      </c>
+      <c r="D84">
+        <v>319501313</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84">
+        <v>81955200</v>
+      </c>
+      <c r="G84">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>44</v>
+      </c>
+      <c r="I84">
+        <v>320699443</v>
+      </c>
+      <c r="J84">
+        <v>0.98322796300000004</v>
+      </c>
+      <c r="K84" s="2">
+        <f>F84/I84</f>
+        <v>0.25555142607466269</v>
+      </c>
+      <c r="L84">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>81955200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7.3010599999999995E-2</v>
+      </c>
+      <c r="B85">
+        <v>189.2</v>
+      </c>
+      <c r="C85">
+        <v>1829456</v>
+      </c>
+      <c r="D85">
+        <v>1829456</v>
+      </c>
+      <c r="E85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85">
+        <v>14009500</v>
+      </c>
+      <c r="G85">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>346133123</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2">
+        <f>F85/I85</f>
+        <v>4.0474311960025856E-2</v>
+      </c>
+      <c r="L85">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>14009500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5.3949999999999997E-5</v>
+      </c>
+      <c r="B86">
+        <v>0.13981299999999999</v>
+      </c>
+      <c r="C86">
+        <v>2597240000</v>
+      </c>
+      <c r="D86">
+        <v>2597240000</v>
+      </c>
+      <c r="E86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86">
+        <v>58233600</v>
+      </c>
+      <c r="G86">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86">
+        <v>363127916</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2">
+        <f>F86/I86</f>
+        <v>0.16036662959286227</v>
+      </c>
+      <c r="L86">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>58233600.000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2.3919800000000001E-3</v>
+      </c>
+      <c r="B87">
+        <v>6.1985900000000003</v>
+      </c>
+      <c r="C87">
+        <v>100000000</v>
+      </c>
+      <c r="D87">
+        <v>59000000</v>
+      </c>
+      <c r="E87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87">
+        <v>15982400</v>
+      </c>
+      <c r="G87">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87">
+        <v>365716810</v>
+      </c>
+      <c r="J87">
+        <v>0.59</v>
+      </c>
+      <c r="K87" s="2">
+        <f>F87/I87</f>
+        <v>4.3701573356718273E-2</v>
+      </c>
+      <c r="L87">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>15982399.999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2.8756900000000002E-3</v>
+      </c>
+      <c r="B88">
+        <v>7.45207</v>
+      </c>
+      <c r="C88">
+        <v>100000000</v>
+      </c>
+      <c r="D88">
+        <v>50000000</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88">
+        <v>13601600</v>
+      </c>
+      <c r="G88">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88">
+        <v>372603500</v>
+      </c>
+      <c r="J88">
+        <v>0.5</v>
+      </c>
+      <c r="K88" s="2">
+        <f>F88/I88</f>
+        <v>3.6504219632934203E-2</v>
+      </c>
+      <c r="L88">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>13601600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2.4857500000000001E-2</v>
+      </c>
+      <c r="B89">
+        <v>64.415899999999993</v>
+      </c>
+      <c r="C89">
+        <v>7311237</v>
+      </c>
+      <c r="D89">
+        <v>6280305</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89">
+        <v>3192270</v>
+      </c>
+      <c r="G89">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89">
+        <v>404551516</v>
+      </c>
+      <c r="J89">
+        <v>0.85899349199999997</v>
+      </c>
+      <c r="K89" s="2">
+        <f>F89/I89</f>
+        <v>7.8908862623073197E-3</v>
+      </c>
+      <c r="L89">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>3192270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7.3150000000000005E-4</v>
+      </c>
+      <c r="B90">
+        <v>1.8956299999999999</v>
+      </c>
+      <c r="C90">
+        <v>1000000000</v>
+      </c>
+      <c r="D90">
+        <v>244941316</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90">
+        <v>72618800</v>
+      </c>
+      <c r="G90">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90">
+        <v>464318107</v>
+      </c>
+      <c r="J90">
+        <v>0.24494131599999999</v>
+      </c>
+      <c r="K90" s="2">
+        <f>F90/I90</f>
+        <v>0.15639881130028815</v>
+      </c>
+      <c r="L90">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>72618800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1.9946899999999999E-3</v>
+      </c>
+      <c r="B91">
+        <v>5.1690399999999999</v>
+      </c>
+      <c r="C91">
+        <v>98479381</v>
+      </c>
+      <c r="D91">
+        <v>98479381</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91">
+        <v>12353200</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>30</v>
+      </c>
+      <c r="I91">
+        <v>509043861</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2">
+        <f>F91/I91</f>
+        <v>2.4267456984418873E-2</v>
+      </c>
+      <c r="L91">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>12353200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1.7760999999999999E-2</v>
+      </c>
+      <c r="B92">
+        <v>46.0261</v>
+      </c>
+      <c r="C92">
+        <v>14845167</v>
+      </c>
+      <c r="D92">
+        <v>14845167</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92">
+        <v>30210000</v>
+      </c>
+      <c r="G92">
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92">
+        <v>683265153</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2">
+        <f>F92/I92</f>
+        <v>4.4214167614662472E-2</v>
+      </c>
+      <c r="L92">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>30210000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1.0807E-4</v>
+      </c>
+      <c r="B93">
+        <v>0.28005400000000003</v>
+      </c>
+      <c r="C93">
+        <v>2779530283</v>
+      </c>
+      <c r="D93">
+        <v>2779530283</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93">
+        <v>5360600</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93">
+        <v>778418574</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2">
+        <f>F93/I93</f>
+        <v>6.8865263227904424E-3</v>
+      </c>
+      <c r="L93">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>5360600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5.7060100000000001E-3</v>
+      </c>
+      <c r="B94">
+        <v>14.7866</v>
+      </c>
+      <c r="C94">
+        <v>93951296</v>
+      </c>
+      <c r="D94">
+        <v>93951296</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94">
+        <v>31340400</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94">
+        <v>1389220233</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2">
+        <f>F94/I94</f>
+        <v>2.2559705981477739E-2</v>
+      </c>
+      <c r="L94">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>31340399.999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>6.2230000000000006E-5</v>
+      </c>
+      <c r="B95">
+        <v>0.16125200000000001</v>
+      </c>
+      <c r="C95">
+        <v>8999999999</v>
+      </c>
+      <c r="D95">
+        <v>8999999999</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95">
+        <v>2686870</v>
+      </c>
+      <c r="G95">
+        <v>6</v>
+      </c>
+      <c r="H95" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95">
+        <v>1451268000</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2">
+        <f>F95/I95</f>
+        <v>1.8513947802886856E-3</v>
+      </c>
+      <c r="L95">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>2686870</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>7.6957100000000001E-2</v>
+      </c>
+      <c r="B96">
+        <v>199.42699999999999</v>
+      </c>
+      <c r="C96">
+        <v>7451056</v>
+      </c>
+      <c r="D96">
+        <v>7451056</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96">
+        <v>37213100</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96">
+        <v>1485941814</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
+        <f>F96/I96</f>
+        <v>2.5043443592065173E-2</v>
+      </c>
+      <c r="L96">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>37213100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1.6329400000000001E-2</v>
+      </c>
+      <c r="B97">
+        <v>42.316000000000003</v>
+      </c>
+      <c r="C97">
+        <v>52187932</v>
+      </c>
+      <c r="D97">
+        <v>52187932</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97">
+        <v>87894700</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97">
+        <v>2208384546</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <f>F97/I97</f>
+        <v>3.9800450586924184E-2</v>
+      </c>
+      <c r="L97">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>87894700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>6.7500000000000001E-5</v>
+      </c>
+      <c r="B98">
+        <v>0.17493</v>
+      </c>
+      <c r="C98">
+        <v>99994550338</v>
+      </c>
+      <c r="D98">
+        <v>38332289584</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98">
+        <v>42990700</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98">
+        <v>6705467417</v>
+      </c>
+      <c r="J98">
+        <v>0.38334378699999999</v>
+      </c>
+      <c r="K98" s="2">
+        <f>F98/I98</f>
+        <v>6.411290567307517E-3</v>
+      </c>
+      <c r="L98">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>42990700</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>7.9638399999999998E-2</v>
+      </c>
+      <c r="B99">
+        <v>206.375</v>
+      </c>
+      <c r="C99">
+        <v>93587743</v>
+      </c>
+      <c r="D99">
+        <v>93587743</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99">
+        <v>497258000</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99">
+        <v>19314170397</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2">
+        <f>F99/I99</f>
+        <v>2.5745760225727183E-2</v>
+      </c>
+      <c r="L99">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>497258000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>2609.7600000000002</v>
+      </c>
+      <c r="C100">
+        <v>16472312</v>
+      </c>
+      <c r="D100">
+        <v>16472312</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100">
+        <v>771386000</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100">
+        <v>42988780965</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
+        <f>F100/I100</f>
+        <v>1.7943891003283769E-2</v>
+      </c>
+      <c r="L100">
+        <f>Table1[[#This Row],[traded vol of mcap]]*Table1[[#This Row],[market_cap_usd]]</f>
+        <v>771386000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>